--- a/result/with_base/134/arousal/s13_9.xlsx
+++ b/result/with_base/134/arousal/s13_9.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8650000095367432</v>
+        <v>0.7940848171710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41698.40625</v>
+        <v>11311.54736328125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8605681766163219</v>
+        <v>0.7882746843730702</v>
       </c>
       <c r="E2" t="n">
-        <v>41701.98401988636</v>
+        <v>11311.68169806985</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.88671875</v>
       </c>
       <c r="C3" t="n">
-        <v>40912.359375</v>
+        <v>11016.14208984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8937500010837208</v>
+        <v>0.8721113450386945</v>
       </c>
       <c r="E3" t="n">
-        <v>40913.92471590909</v>
+        <v>11015.498046875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.8984375</v>
       </c>
       <c r="C4" t="n">
-        <v>40135.349609375</v>
+        <v>10721.08203125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9304545413364064</v>
+        <v>0.9004726900773889</v>
       </c>
       <c r="E4" t="n">
-        <v>40136.35759943182</v>
+        <v>10720.45392922794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.8984375</v>
       </c>
       <c r="C5" t="n">
-        <v>39368.1796875</v>
+        <v>10429.94970703125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9447727257555182</v>
+        <v>0.9239101900773889</v>
       </c>
       <c r="E5" t="n">
-        <v>39368.06747159091</v>
+        <v>10429.03061810662</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38611.890625</v>
+        <v>10144.39111328125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9574999971823259</v>
+        <v>0.9353991606656242</v>
       </c>
       <c r="E6" t="n">
-        <v>38611.55823863636</v>
+        <v>10143.46220128676</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9068080484867096</v>
       </c>
       <c r="C7" t="n">
-        <v>37867.3125</v>
+        <v>9864.642578125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9687500054186041</v>
+        <v>0.9441307783126831</v>
       </c>
       <c r="E7" t="n">
-        <v>37866.61470170454</v>
+        <v>9863.627068014706</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37135.484375</v>
+        <v>9590.92138671875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9634090824560686</v>
+        <v>0.9466911764705882</v>
       </c>
       <c r="E8" t="n">
-        <v>37134.91299715909</v>
+        <v>9590.019358915441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36416.052734375</v>
+        <v>9323.35400390625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9734090945937417</v>
+        <v>0.9538471628637875</v>
       </c>
       <c r="E9" t="n">
-        <v>36415.10191761364</v>
+        <v>9322.227653952206</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C10" t="n">
-        <v>35708.845703125</v>
+        <v>9061.822265625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9794318296692588</v>
+        <v>0.9626444332739886</v>
       </c>
       <c r="E10" t="n">
-        <v>35707.88458806818</v>
+        <v>9060.713579963236</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C11" t="n">
-        <v>35014.548828125</v>
+        <v>8806.37158203125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9789772846482017</v>
+        <v>0.9719012590015635</v>
       </c>
       <c r="E11" t="n">
-        <v>35013.57528409091</v>
+        <v>8805.358857996323</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34332.345703125</v>
+        <v>8557.21337890625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9880681850693442</v>
+        <v>0.9694721628637875</v>
       </c>
       <c r="E12" t="n">
-        <v>34331.33167613636</v>
+        <v>8556.220186121323</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33662.638671875</v>
+        <v>8314.0859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9855681928721342</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E13" t="n">
-        <v>33661.59801136364</v>
+        <v>8313.142405790441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C14" t="n">
-        <v>33004.78515625</v>
+        <v>8077.131103515625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9901136430827054</v>
+        <v>0.9745273099226111</v>
       </c>
       <c r="E14" t="n">
-        <v>33003.89204545454</v>
+        <v>8076.343232996323</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32359.1533203125</v>
+        <v>7846.18408203125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9896590980616483</v>
+        <v>0.980173317825093</v>
       </c>
       <c r="E15" t="n">
-        <v>32358.37073863636</v>
+        <v>7845.283978630515</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31725.533203125</v>
+        <v>7621.080078125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E16" t="n">
-        <v>31724.74272017046</v>
+        <v>7620.2197265625</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31103.3134765625</v>
+        <v>7401.653564453125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9796481097445768</v>
       </c>
       <c r="E17" t="n">
-        <v>31102.54651988636</v>
+        <v>7400.79630055147</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30493.0234375</v>
+        <v>7187.818115234375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9862500104037198</v>
+        <v>0.9818802510990816</v>
       </c>
       <c r="E18" t="n">
-        <v>30492.19708806818</v>
+        <v>7187.031795726103</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.987500011920929</v>
+        <v>0.953125</v>
       </c>
       <c r="C19" t="n">
-        <v>29893.5546875</v>
+        <v>6979.5791015625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E19" t="n">
-        <v>29892.84392755682</v>
+        <v>6978.786333869485</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29305.7646484375</v>
+        <v>6776.814697265625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9834558823529411</v>
       </c>
       <c r="E20" t="n">
-        <v>29304.84268465909</v>
+        <v>6776.05264820772</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28728.375</v>
+        <v>6579.389892578125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9865414920975181</v>
       </c>
       <c r="E21" t="n">
-        <v>28727.60884232954</v>
+        <v>6578.533002068015</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28162.1474609375</v>
+        <v>6387.064453125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9885110294117647</v>
       </c>
       <c r="E22" t="n">
-        <v>28161.25603693182</v>
+        <v>6386.216739430147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C23" t="n">
-        <v>27606.228515625</v>
+        <v>6199.744384765625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E23" t="n">
-        <v>27605.44495738636</v>
+        <v>6199.074247472427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C24" t="n">
-        <v>27060.638671875</v>
+        <v>6017.6142578125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.976431197979871</v>
       </c>
       <c r="E24" t="n">
-        <v>27059.99911221591</v>
+        <v>6016.956227022059</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26525.658203125</v>
+        <v>5840.37646484375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9620535724303302</v>
       </c>
       <c r="E25" t="n">
-        <v>26524.919921875</v>
+        <v>5839.713350183823</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26000.443359375</v>
+        <v>5667.544189453125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9851628156269298</v>
       </c>
       <c r="E26" t="n">
-        <v>25999.80859375</v>
+        <v>5666.9580078125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.94921875</v>
       </c>
       <c r="C27" t="n">
-        <v>25485.2275390625</v>
+        <v>5499.525634765625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9921218472368577</v>
       </c>
       <c r="E27" t="n">
-        <v>25484.57368607954</v>
+        <v>5498.958266314338</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C28" t="n">
-        <v>24979.74609375</v>
+        <v>5335.882080078125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9935227307406339</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E28" t="n">
-        <v>24979.04651988636</v>
+        <v>5335.517262178309</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C29" t="n">
-        <v>24483.6796875</v>
+        <v>5176.947509765625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9905462194891537</v>
       </c>
       <c r="E29" t="n">
-        <v>24483.03409090909</v>
+        <v>5176.458668428309</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C30" t="n">
-        <v>23997.072265625</v>
+        <v>5022.296630859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E30" t="n">
-        <v>23996.34073153409</v>
+        <v>5021.709932215073</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.94921875</v>
       </c>
       <c r="C31" t="n">
-        <v>23519.349609375</v>
+        <v>4871.690185546875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E31" t="n">
-        <v>23518.84268465909</v>
+        <v>4871.12801585478</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.94140625</v>
       </c>
       <c r="C32" t="n">
-        <v>23050.9267578125</v>
+        <v>4725.216796875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E32" t="n">
-        <v>23050.38387784091</v>
+        <v>4724.736644071691</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C33" t="n">
-        <v>22591.5927734375</v>
+        <v>4582.630126953125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E33" t="n">
-        <v>22590.74449573864</v>
+        <v>4582.24356617647</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C34" t="n">
-        <v>22140.4306640625</v>
+        <v>4444.120849609375</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E34" t="n">
-        <v>22139.724609375</v>
+        <v>4443.714671415441</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9453125</v>
       </c>
       <c r="C35" t="n">
-        <v>21697.935546875</v>
+        <v>4309.42236328125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E35" t="n">
-        <v>21697.28107244318</v>
+        <v>4308.974293428309</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21263.7763671875</v>
+        <v>4178.3388671875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.992056197979871</v>
       </c>
       <c r="E36" t="n">
-        <v>21263.15553977273</v>
+        <v>4177.918169806985</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C37" t="n">
-        <v>20837.7265625</v>
+        <v>4051.0166015625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9898240531192106</v>
       </c>
       <c r="E37" t="n">
-        <v>20837.19815340909</v>
+        <v>4050.527544806985</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C38" t="n">
-        <v>20419.900390625</v>
+        <v>3926.994750976562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E38" t="n">
-        <v>20419.322265625</v>
+        <v>3926.620921415441</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9749999940395355</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20009.8876953125</v>
+        <v>3806.490356445312</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9910714275696698</v>
       </c>
       <c r="E39" t="n">
-        <v>20009.34268465909</v>
+        <v>3806.188577090993</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19607.703125</v>
+        <v>3689.409057617188</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9795168077244478</v>
       </c>
       <c r="E40" t="n">
-        <v>19607.12855113636</v>
+        <v>3689.131591796875</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19212.9208984375</v>
+        <v>3575.60791015625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E41" t="n">
-        <v>19212.51970880682</v>
+        <v>3575.253288717831</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C42" t="n">
-        <v>18825.9033203125</v>
+        <v>3464.946044921875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E42" t="n">
-        <v>18825.396484375</v>
+        <v>3464.6181640625</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18446.0625</v>
+        <v>3357.2763671875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9906118687461404</v>
       </c>
       <c r="E43" t="n">
-        <v>18445.58167613636</v>
+        <v>3357.052475873162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.94140625</v>
       </c>
       <c r="C44" t="n">
-        <v>18073.3427734375</v>
+        <v>3252.81787109375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9822741606656242</v>
       </c>
       <c r="E44" t="n">
-        <v>18072.95632102273</v>
+        <v>3252.565645105698</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17707.8564453125</v>
+        <v>3151.2080078125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E45" t="n">
-        <v>17707.40216619318</v>
+        <v>3150.942626953125</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C46" t="n">
-        <v>17349.162109375</v>
+        <v>3052.553588867188</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9783350825309753</v>
       </c>
       <c r="E46" t="n">
-        <v>17348.75656960227</v>
+        <v>3052.26859777114</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C47" t="n">
-        <v>16997.2978515625</v>
+        <v>2956.560424804688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E47" t="n">
-        <v>16996.94477982954</v>
+        <v>2956.318201401654</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C48" t="n">
-        <v>16652.1708984375</v>
+        <v>2863.39599609375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9912683823529411</v>
       </c>
       <c r="E48" t="n">
-        <v>16651.81818181818</v>
+        <v>2863.113984949448</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16313.5126953125</v>
+        <v>2772.857788085938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.981026786215165</v>
       </c>
       <c r="E49" t="n">
-        <v>16313.20170454545</v>
+        <v>2772.608786190257</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C50" t="n">
-        <v>15981.37109375</v>
+        <v>2684.91943359375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9709821413545048</v>
       </c>
       <c r="E50" t="n">
-        <v>15981.07137784091</v>
+        <v>2684.700583065257</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,839 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15655.54736328125</v>
+        <v>2599.38916015625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E51" t="n">
-        <v>15655.24662642045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15335.912109375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15335.6044921875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15022.45166015625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9969318183985624</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15022.07430752841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14714.7861328125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14714.50275213068</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14413.099609375</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14412.80832741477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14117.16552734375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14116.86443536932</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13826.892578125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13826.59232954545</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13542.19482421875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13541.85324928977</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13262.83251953125</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13262.55770596591</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12988.904296875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12988.62198153409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12720.27978515625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12719.95259232955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12456.70947265625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12456.3896484375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12198.10400390625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12197.88503196023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11944.623046875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11944.38077059659</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11695.94091796875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11695.74067826705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11452.09619140625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11451.89213423295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11213.01171875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11212.75790127841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10978.40869140625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10978.19495738636</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10748.345703125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10748.17879971591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9824999868869781</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10522.81494140625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10522.5908203125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10301.53173828125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10301.38618607955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10084.63720703125</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10084.46368963068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9871.91015625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9871.7568359375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9774999916553497</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9663.3369140625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9663.17276278409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9458.78857421875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9458.637428977272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9258.2822265625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9258.101740056818</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9061.611328125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9061.4599609375</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8868.82958984375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8868.645774147728</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9850000143051147</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8679.74609375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8679.607688210228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9799999892711639</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8494.45556640625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8494.283824573864</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8312.67919921875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8312.560369318182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4482758620689655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5172413793103449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.004739336492890996</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5172413793103449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.004739336492890996</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.896551724137931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03317535545023697</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.896551724137931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03317535545023697</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9310344827586207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.05213270142180094</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9310344827586207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05213270142180094</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1563981042654028</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1563981042654028</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9898676254289918</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8530805687203792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8578199052132701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8720379146919431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9478672985781991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9478672985781991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.966824644549763</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.966824644549763</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.995260663507109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.995260663507109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.4827586206896552</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.975486190554012</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
+        <v>2599.194422104779</v>
       </c>
     </row>
   </sheetData>
